--- a/Project/RTDSP/audio/avg_readings.xlsx
+++ b/Project/RTDSP/audio/avg_readings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\RTDSP\Project\RTDSP\audio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTDSP\Project\RTDSP\audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>alphas</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>avg_lynx2</t>
+  </si>
+  <si>
+    <t>100, 100, 50, 10</t>
+  </si>
+  <si>
+    <t>50, 40, 30, 10</t>
+  </si>
+  <si>
+    <t>10, 10, 10, 10</t>
   </si>
 </sst>
 </file>
@@ -365,16 +374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -423,6 +431,66 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>7.23</v>
+      </c>
+      <c r="C4">
+        <v>12.12</v>
+      </c>
+      <c r="D4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E4">
+        <v>11.34</v>
+      </c>
+      <c r="F4">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>7.9</v>
+      </c>
+      <c r="C5">
+        <v>11.4</v>
+      </c>
+      <c r="D5">
+        <v>29.45</v>
+      </c>
+      <c r="E5">
+        <v>14.13</v>
+      </c>
+      <c r="F5">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="C6">
+        <v>9.8230000000000004</v>
+      </c>
+      <c r="D6">
+        <v>29.6</v>
+      </c>
+      <c r="E6">
+        <v>10.7</v>
+      </c>
+      <c r="F6">
+        <v>7.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
